--- a/docs/testing/Client_typeform_survey_results_round_1.xlsx
+++ b/docs/testing/Client_typeform_survey_results_round_1.xlsx
@@ -5,24 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kathe/academy/assignments/Term 3/T3A2_1UpBouldering/t3a2-full-stack-app-docs/docs/testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kathe/academy/assignments/T3A2_1UpBouldering/t3a2-full-stack-app-docs/docs/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B8E313-6BBA-1E4A-96AA-89A371AE20F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5302920-C384-E74D-9D91-44096E738D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28360" windowHeight="16380" tabRatio="204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28360" windowHeight="16380" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data_row_format" sheetId="2" r:id="rId1"/>
-    <sheet name="Data_column_format" sheetId="1" r:id="rId2"/>
-    <sheet name="Notes" sheetId="3" r:id="rId3"/>
+    <sheet name="Data_export" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -213,28 +212,7 @@
     <t>This workbook contains the exported raw data from the survey.</t>
   </si>
   <si>
-    <t>Please note, the data in the 2 tabs is identical. It is available in row format for eligibility and in column format for ease of sorting/filtering</t>
-  </si>
-  <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column6</t>
   </si>
 </sst>
 </file>
@@ -291,12 +269,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -312,7 +287,81 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -332,126 +381,6 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -466,42 +395,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D2F6937-D89B-654F-AAA6-DFC5F881AF8C}" name="Table2" displayName="Table2" ref="A1:F19" totalsRowShown="0" headerRowDxfId="20" dataDxfId="21">
-  <autoFilter ref="A1:F19" xr:uid="{1D2F6937-D89B-654F-AAA6-DFC5F881AF8C}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{821B843B-325C-894A-895E-71306F7AA590}" name="Column1" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{AD0C5621-802E-B544-9275-D6F5273920E4}" name="Column2" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{8BFE1957-4B84-6743-A34F-C565EA18F213}" name="Column3" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{20EFDAD5-F892-4441-B009-8CE486614C84}" name="Column4" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{F3407536-6E7E-0245-8EC1-41A7F54D88EB}" name="Column5" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{9A1A1F83-1BEC-F34B-A4FC-411710479D0E}" name="Column6" dataDxfId="22"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B454DE6-1D97-FE44-A215-8CBA5D83AEFD}" name="Table3" displayName="Table3" ref="A1:R6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B454DE6-1D97-FE44-A215-8CBA5D83AEFD}" name="Table3" displayName="Table3" ref="A1:R6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:R6" xr:uid="{6B454DE6-1D97-FE44-A215-8CBA5D83AEFD}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{F77C8CA2-D72B-E74E-89BC-7EF4B827373A}" name="#" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{CEEE8D9C-B1E5-594A-93AC-52FBB9B846EC}" name="Let's start simple - what's your name?" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{E0AF87A2-1228-AE4D-A464-5414B1EA24C1}" name="Overall, how happy are you with the software, {{field:e1730bb0-4d3d-4228-abbf-c8c20e4331ab}}?" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{6110F0F6-D81A-3D42-9DCA-6EAE7BC35DFD}" name="Thanks, what did you like *most* about it?" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{45C9C334-9AF8-5D4C-A776-B4CBA8DC0C78}" name="And what were your *least* favorite aspects of the software?" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{90865FB7-62EF-A14A-A891-2D7F716B79EC}" name="Seen any bugs?" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{E57031DD-BE76-F54B-8EF9-F451E34FAA10}" name="More educational materials around the product" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{3C9B626D-E393-454D-B72C-6046DEF20EC0}" name="Better integration with other tools" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{CCDCA827-83AA-5A42-84BB-0B0BC25C7712}" name="Two-factor authentication" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{18370EAB-5B47-1649-9BE4-4BA08E11EB99}" name="Improved admin panel" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{36ECB47A-5029-7B40-B243-AE047913379B}" name="Squashing bugs" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{89328193-1AAB-1640-89B7-DA4881D1F4DE}" name="Better reporting capabilities" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{BE3C87E4-FFCD-2547-B761-3B651A5F9097}" name="Other" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{2CE58886-A41E-D048-BDCB-1A00F297BC69}" name="How likely are you to recommend the product to a friend?" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{7DA59C8C-70E9-A14E-B514-9E6C27218289}" name="And finally, do you have some other thoughts about the product you'd like to share?" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{B9D8EF02-B8AE-4146-A706-036781A20FDD}" name="Start Date (UTC)" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{2D6B1BA9-AB6E-EF4A-965A-50F7CA53844A}" name="Submit Date (UTC)" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{68C9BBB1-793C-FC40-B7CE-2F8688F0EEE4}" name="Network ID" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F77C8CA2-D72B-E74E-89BC-7EF4B827373A}" name="#" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{CEEE8D9C-B1E5-594A-93AC-52FBB9B846EC}" name="Let's start simple - what's your name?" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{E0AF87A2-1228-AE4D-A464-5414B1EA24C1}" name="Overall, how happy are you with the software, {{field:e1730bb0-4d3d-4228-abbf-c8c20e4331ab}}?" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{6110F0F6-D81A-3D42-9DCA-6EAE7BC35DFD}" name="Thanks, what did you like *most* about it?" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{45C9C334-9AF8-5D4C-A776-B4CBA8DC0C78}" name="And what were your *least* favorite aspects of the software?" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{90865FB7-62EF-A14A-A891-2D7F716B79EC}" name="Seen any bugs?" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{E57031DD-BE76-F54B-8EF9-F451E34FAA10}" name="More educational materials around the product" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{3C9B626D-E393-454D-B72C-6046DEF20EC0}" name="Better integration with other tools" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{CCDCA827-83AA-5A42-84BB-0B0BC25C7712}" name="Two-factor authentication" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{18370EAB-5B47-1649-9BE4-4BA08E11EB99}" name="Improved admin panel" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{36ECB47A-5029-7B40-B243-AE047913379B}" name="Squashing bugs" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{89328193-1AAB-1640-89B7-DA4881D1F4DE}" name="Better reporting capabilities" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{BE3C87E4-FFCD-2547-B761-3B651A5F9097}" name="Other" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{2CE58886-A41E-D048-BDCB-1A00F297BC69}" name="How likely are you to recommend the product to a friend?" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{7DA59C8C-70E9-A14E-B514-9E6C27218289}" name="And finally, do you have some other thoughts about the product you'd like to share?" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{B9D8EF02-B8AE-4146-A706-036781A20FDD}" name="Start Date (UTC)" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{2D6B1BA9-AB6E-EF4A-965A-50F7CA53844A}" name="Submit Date (UTC)" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{68C9BBB1-793C-FC40-B7CE-2F8688F0EEE4}" name="Network ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -828,479 +742,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B1DE50-FEE2-3947-B6B1-B9BFDDFA36F4}">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="45.33203125" style="5" customWidth="1"/>
-    <col min="2" max="6" width="30.33203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="4" customWidth="1"/>
-    <col min="4" max="13" width="19.33203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="4" customWidth="1"/>
-    <col min="15" max="18" width="19.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" customWidth="1"/>
+    <col min="4" max="13" width="19.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="3" customWidth="1"/>
+    <col min="15" max="18" width="19.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1308,55 +819,55 @@
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="3">
         <v>7</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1364,111 +875,111 @@
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="3">
         <v>9</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="3">
         <v>5</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="O4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1476,111 +987,111 @@
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="3">
         <v>8</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="60" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="75" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>10</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1597,38 +1108,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3049ABDD-8C2B-CB43-8F9F-1584CEF5F619}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="130.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="92.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>64</v>
+      <c r="A1" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
